--- a/WorkingFolder/SVC final/svc_poly_3.xlsx
+++ b/WorkingFolder/SVC final/svc_poly_3.xlsx
@@ -534,7 +534,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -546,6 +546,13 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -583,11 +590,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -889,8 +897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="F55" sqref="A47:F55"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -898,7 +906,7 @@
     <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" customWidth="1"/>
     <col min="5" max="5" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="85.7109375" bestFit="1" customWidth="1"/>
@@ -1166,22 +1174,22 @@
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" t="s">
+      <c r="A11" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C11">
-        <v>3</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="C11" s="2">
+        <v>3</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="2">
         <v>44.7</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="2">
         <v>50</v>
       </c>
       <c r="G11" t="s">
@@ -1192,22 +1200,22 @@
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" t="s">
+      <c r="A12" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C12">
-        <v>3</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="C12" s="2">
+        <v>3</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="2">
         <v>20.8</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="2">
         <v>31.2</v>
       </c>
       <c r="G12" t="s">
@@ -1218,22 +1226,22 @@
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" t="s">
+      <c r="A13" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C13">
-        <v>3</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="C13" s="2">
+        <v>3</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="2">
         <v>89.5</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="2">
         <v>88.5</v>
       </c>
       <c r="G13" t="s">
@@ -1244,22 +1252,22 @@
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" t="s">
+      <c r="A14" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C14">
-        <v>3</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="C14" s="2">
+        <v>3</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="2">
         <v>90.8</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="2">
         <v>92.300000000000011</v>
       </c>
       <c r="G14" t="s">
@@ -1270,22 +1278,22 @@
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" t="s">
+      <c r="A15" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C15">
-        <v>3</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="C15" s="2">
+        <v>3</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="2">
         <v>89.3</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="2">
         <v>60</v>
       </c>
       <c r="G15" t="s">
@@ -1296,22 +1304,22 @@
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" t="s">
+      <c r="A16" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C16">
-        <v>3</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="C16" s="2">
+        <v>3</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="2">
         <v>88.9</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="2">
         <v>28.6</v>
       </c>
       <c r="G16" t="s">
@@ -1322,22 +1330,22 @@
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" t="s">
+      <c r="A17" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C17">
-        <v>3</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="C17" s="2">
+        <v>3</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="2">
         <v>75</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="2">
         <v>73.099999999999994</v>
       </c>
       <c r="G17" t="s">
@@ -1348,22 +1356,22 @@
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" t="s">
+      <c r="A18" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C18">
-        <v>3</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="C18" s="2">
+        <v>3</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="2">
         <v>75.900000000000006</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="2">
         <v>70</v>
       </c>
       <c r="G18" t="s">
@@ -1374,22 +1382,22 @@
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" t="s">
+      <c r="A19" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C19">
-        <v>3</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="C19" s="2">
+        <v>3</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="2">
         <v>47.4</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="2">
         <v>42.9</v>
       </c>
       <c r="G19" t="s">
@@ -1634,22 +1642,22 @@
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" t="s">
+      <c r="A29" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C29">
-        <v>3</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="C29" s="2">
+        <v>3</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="2">
         <v>40.799999999999997</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="2">
         <v>38.5</v>
       </c>
       <c r="G29" t="s">
@@ -1660,22 +1668,22 @@
       </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" t="s">
+      <c r="A30" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C30">
-        <v>3</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="C30" s="2">
+        <v>3</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="2">
         <v>25</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="2">
         <v>6.2</v>
       </c>
       <c r="G30" t="s">
@@ -1686,22 +1694,22 @@
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" t="s">
+      <c r="A31" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C31">
-        <v>3</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="C31" s="2">
+        <v>3</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="2">
         <v>86.8</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="2">
         <v>88.5</v>
       </c>
       <c r="G31" t="s">
@@ -1712,22 +1720,22 @@
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" t="s">
+      <c r="A32" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C32">
-        <v>3</v>
-      </c>
-      <c r="D32" t="s">
+      <c r="C32" s="2">
+        <v>3</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="2">
         <v>85.5</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="2">
         <v>80.800000000000011</v>
       </c>
       <c r="G32" t="s">
@@ -1738,22 +1746,22 @@
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" t="s">
+      <c r="A33" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C33">
-        <v>3</v>
-      </c>
-      <c r="D33" t="s">
+      <c r="C33" s="2">
+        <v>3</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="2">
         <v>89.3</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="2">
         <v>90</v>
       </c>
       <c r="G33" t="s">
@@ -1764,22 +1772,22 @@
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" t="s">
+      <c r="A34" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C34">
-        <v>3</v>
-      </c>
-      <c r="D34" t="s">
+      <c r="C34" s="2">
+        <v>3</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="2">
         <v>61.1</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="2">
         <v>57.099999999999987</v>
       </c>
       <c r="G34" t="s">
@@ -1790,22 +1798,22 @@
       </c>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" t="s">
+      <c r="A35" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C35">
-        <v>3</v>
-      </c>
-      <c r="D35" t="s">
+      <c r="C35" s="2">
+        <v>3</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="2">
         <v>75</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="2">
         <v>73.099999999999994</v>
       </c>
       <c r="G35" t="s">
@@ -1816,22 +1824,22 @@
       </c>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" t="s">
+      <c r="A36" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C36">
-        <v>3</v>
-      </c>
-      <c r="D36" t="s">
+      <c r="C36" s="2">
+        <v>3</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="2">
         <v>82.8</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="2">
         <v>80</v>
       </c>
       <c r="G36" t="s">
@@ -1842,22 +1850,22 @@
       </c>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" t="s">
+      <c r="A37" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C37">
-        <v>3</v>
-      </c>
-      <c r="D37" t="s">
+      <c r="C37" s="2">
+        <v>3</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="2">
         <v>68.400000000000006</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="2">
         <v>57.099999999999987</v>
       </c>
       <c r="G37" t="s">
@@ -2102,22 +2110,22 @@
       </c>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" t="s">
+      <c r="A47" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C47">
-        <v>3</v>
-      </c>
-      <c r="D47" t="s">
+      <c r="C47" s="2">
+        <v>3</v>
+      </c>
+      <c r="D47" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="2">
         <v>52.6</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="2">
         <v>57.7</v>
       </c>
       <c r="G47" t="s">
@@ -2128,22 +2136,22 @@
       </c>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" t="s">
+      <c r="A48" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C48">
-        <v>3</v>
-      </c>
-      <c r="D48" t="s">
+      <c r="C48" s="2">
+        <v>3</v>
+      </c>
+      <c r="D48" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="2">
         <v>22.9</v>
       </c>
-      <c r="F48">
+      <c r="F48" s="2">
         <v>43.8</v>
       </c>
       <c r="G48" t="s">
@@ -2154,22 +2162,22 @@
       </c>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" t="s">
+      <c r="A49" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C49">
-        <v>3</v>
-      </c>
-      <c r="D49" t="s">
+      <c r="C49" s="2">
+        <v>3</v>
+      </c>
+      <c r="D49" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="2">
         <v>92.100000000000009</v>
       </c>
-      <c r="F49">
+      <c r="F49" s="2">
         <v>92.300000000000011</v>
       </c>
       <c r="G49" t="s">
@@ -2180,22 +2188,22 @@
       </c>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" t="s">
+      <c r="A50" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C50">
-        <v>3</v>
-      </c>
-      <c r="D50" t="s">
+      <c r="C50" s="2">
+        <v>3</v>
+      </c>
+      <c r="D50" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="2">
         <v>92.100000000000009</v>
       </c>
-      <c r="F50">
+      <c r="F50" s="2">
         <v>96.2</v>
       </c>
       <c r="G50" t="s">
@@ -2206,22 +2214,22 @@
       </c>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" t="s">
+      <c r="A51" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C51">
-        <v>3</v>
-      </c>
-      <c r="D51" t="s">
+      <c r="C51" s="2">
+        <v>3</v>
+      </c>
+      <c r="D51" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="2">
         <v>89.3</v>
       </c>
-      <c r="F51">
+      <c r="F51" s="2">
         <v>90</v>
       </c>
       <c r="G51" t="s">
@@ -2232,22 +2240,22 @@
       </c>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" t="s">
+      <c r="A52" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C52">
-        <v>3</v>
-      </c>
-      <c r="D52" t="s">
+      <c r="C52" s="2">
+        <v>3</v>
+      </c>
+      <c r="D52" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="2">
         <v>94.399999999999991</v>
       </c>
-      <c r="F52">
+      <c r="F52" s="2">
         <v>42.9</v>
       </c>
       <c r="G52" t="s">
@@ -2258,22 +2266,22 @@
       </c>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" t="s">
+      <c r="A53" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C53">
-        <v>3</v>
-      </c>
-      <c r="D53" t="s">
+      <c r="C53" s="2">
+        <v>3</v>
+      </c>
+      <c r="D53" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="2">
         <v>75</v>
       </c>
-      <c r="F53">
+      <c r="F53" s="2">
         <v>73.099999999999994</v>
       </c>
       <c r="G53" t="s">
@@ -2284,22 +2292,22 @@
       </c>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" t="s">
+      <c r="A54" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C54">
-        <v>3</v>
-      </c>
-      <c r="D54" t="s">
+      <c r="C54" s="2">
+        <v>3</v>
+      </c>
+      <c r="D54" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="2">
         <v>86.2</v>
       </c>
-      <c r="F54">
+      <c r="F54" s="2">
         <v>70</v>
       </c>
       <c r="G54" t="s">
@@ -2310,22 +2318,22 @@
       </c>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" t="s">
+      <c r="A55" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C55">
-        <v>3</v>
-      </c>
-      <c r="D55" t="s">
+      <c r="C55" s="2">
+        <v>3</v>
+      </c>
+      <c r="D55" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="E55">
+      <c r="E55" s="2">
         <v>63.2</v>
       </c>
-      <c r="F55">
+      <c r="F55" s="2">
         <v>42.9</v>
       </c>
       <c r="G55" t="s">
